--- a/biology/Zoologie/Colubroelaps_nguyenvansangi/Colubroelaps_nguyenvansangi.xlsx
+++ b/biology/Zoologie/Colubroelaps_nguyenvansangi/Colubroelaps_nguyenvansangi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colubroelaps nguyenvansangi, unique représentant du genre Colubroelaps, est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colubroelaps nguyenvansangi, unique représentant du genre Colubroelaps, est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des provinces de Bình Phước et Lâm Đồng au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des provinces de Bình Phước et Lâm Đồng au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colubroelaps nguyenvansangi est un serpent très fin à l'apparence vermiforme. Le spécimen décrit mesurait 50 cm dont 11 cm pour la queue. Cette espèce est très proche morphologiquement des Elapidae mais s'en distingue par l'absence de glandes à venin et de crochets. Sa tête est petite et ronde et dans le prolongement du corps. Ses yeux sont très petits et ses pupilles sont rondes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colubroelaps nguyenvansangi est un serpent très fin à l'apparence vermiforme. Le spécimen décrit mesurait 50 cm dont 11 cm pour la queue. Cette espèce est très proche morphologiquement des Elapidae mais s'en distingue par l'absence de glandes à venin et de crochets. Sa tête est petite et ronde et dans le prolongement du corps. Ses yeux sont très petits et ses pupilles sont rondes.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Colubroelaps est formé à partir des racines grecques latinisées Coluber, le genre type de la famille des Colubridae et de Elaps le genre type de la famille des Elapidae avec lesquels cette nouvelle espèce a de nombreux points communs.
 Le nom de cette espèce lui a été donné en l'honneur du Dr. Nguyen Van Sang qui a collecté l'holotype et qui a décrit de nombreuses espèces.
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Orlov, Kharin, Ananjeva, Nguyen Thien Tao &amp; Nguyen Quang Truon, 2009 : A New Genus and Species of Colubrid Snake (Squamata, Ophidia, Colubridae) from South Vietnam (Lam Dong Province). Russian Journal of Herpetology, vol. 16, n. 3, p. 228-240.</t>
         </is>
